--- a/templates/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/4COM02_ProteomicsDataProcessing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM02_ProteomicsDataProcessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1351CC-88F5-436A-9BA4-9A3AAB037FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF26D4FD-693F-402E-9ACE-9C1325926C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM02_ProteomicsDataProcessing" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1099E1D0-D076-443E-894B-9E3ED68B03A6}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=6364b4a3-aae5-40c8-a5e3-221139d1a7db</t>
       </text>
     </comment>
@@ -358,7 +358,7 @@
     <t>http://purl.obolibrary.org/obo/MS_1000536</t>
   </si>
   <si>
-    <t>1.1.5</t>
+    <t>1.1.6</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -901,7 +901,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
@@ -1139,7 +1139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -1367,7 +1367,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>

--- a/templates/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/4COM02_ProteomicsDataProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF26D4FD-693F-402E-9ACE-9C1325926C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2602C29F-4481-4959-9FEE-9E4C52EB8EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19110" windowHeight="12450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM02_ProteomicsDataProcessing" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1099E1D0-D076-443E-894B-9E3ED68B03A6}</author>
+    <author>tc={ED4C9886-F5CF-48CC-BD42-6120C5CFD25E}</author>
+    <author>tc={D3811907-E5C5-4E27-9565-3FC0EF712548}</author>
+    <author>tc={0E3E0205-37BA-415E-AB90-8AE4C45E3BF3}</author>
+    <author>tc={D2E88502-A283-4FC8-8055-93BE38E7E2F6}</author>
+    <author>tc={274D0D9F-2895-4E80-B9B2-2F27EDD6318C}</author>
+    <author>tc={220ABE78-E6F3-47E4-9768-95E5E25B8414}</author>
+    <author>tc={4ADE2B35-25A7-488F-917E-3BFECE3C0CBD}</author>
+    <author>tc={CA33531D-804A-4B0B-8B2F-D1C0ACFA3EC2}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1099E1D0-D076-443E-894B-9E3ED68B03A6}">
@@ -51,12 +59,76 @@
     id=6364b4a3-aae5-40c8-a5e3-221139d1a7db</t>
       </text>
     </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{ED4C9886-F5CF-48CC-BD42-6120C5CFD25E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{D3811907-E5C5-4E27-9565-3FC0EF712548}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{0E3E0205-37BA-415E-AB90-8AE4C45E3BF3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{D2E88502-A283-4FC8-8055-93BE38E7E2F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{274D0D9F-2895-4E80-B9B2-2F27EDD6318C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{220ABE78-E6F3-47E4-9768-95E5E25B8414}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{4ADE2B35-25A7-488F-917E-3BFECE3C0CBD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{CA33531D-804A-4B0B-8B2F-D1C0ACFA3EC2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>Source Name</t>
   </si>
@@ -94,9 +166,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -154,18 +223,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>6364b4a3-aae5-40c8-a5e3-221139d1a7db</t>
   </si>
   <si>
@@ -175,9 +232,6 @@
     <t>This protocol tackles the steps after obtaining measurement results in terms of computational analysis.</t>
   </si>
   <si>
-    <t>https://github.com/nfdi4plants/SWATE_templates/wiki/4COM02_ProteomicsDataProcessing</t>
-  </si>
-  <si>
     <t>annotationTableMeanMonkey69</t>
   </si>
   <si>
@@ -359,13 +413,28 @@
   </si>
   <si>
     <t>1.1.6</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>DataPLANT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +449,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -569,6 +644,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Oliver Maus" id="{71B35729-10BF-4316-90F7-835780667BB0}" userId="Oliver Maus" providerId="None"/>
+  <person displayName="Kevin F" id="{9533F560-02DC-435F-ACC7-94C4866C149E}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -861,6 +937,30 @@
   <threadedComment ref="A1" dT="2021-11-03T17:00:32.36" personId="{71B35729-10BF-4316-90F7-835780667BB0}" id="{F3A1487F-D695-482A-AC7F-8CB66EE05258}" parentId="{1099E1D0-D076-443E-894B-9E3ED68B03A6}">
     <text>id=6364b4a3-aae5-40c8-a5e3-221139d1a7db</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{9533F560-02DC-435F-ACC7-94C4866C149E}" id="{ED4C9886-F5CF-48CC-BD42-6120C5CFD25E}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{9533F560-02DC-435F-ACC7-94C4866C149E}" id="{D3811907-E5C5-4E27-9565-3FC0EF712548}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{9533F560-02DC-435F-ACC7-94C4866C149E}" id="{0E3E0205-37BA-415E-AB90-8AE4C45E3BF3}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{9533F560-02DC-435F-ACC7-94C4866C149E}" id="{D2E88502-A283-4FC8-8055-93BE38E7E2F6}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{9533F560-02DC-435F-ACC7-94C4866C149E}" id="{274D0D9F-2895-4E80-B9B2-2F27EDD6318C}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{9533F560-02DC-435F-ACC7-94C4866C149E}" id="{220ABE78-E6F3-47E4-9768-95E5E25B8414}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{9533F560-02DC-435F-ACC7-94C4866C149E}" id="{4ADE2B35-25A7-488F-917E-3BFECE3C0CBD}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{9533F560-02DC-435F-ACC7-94C4866C149E}" id="{CA33531D-804A-4B0B-8B2F-D1C0ACFA3EC2}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -899,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -930,13 +1030,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -953,176 +1053,176 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1135,9 +1235,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AAA522-F19E-4710-B970-316CC0A90CE6}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1152,7 +1254,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1160,7 +1262,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1176,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,176 +1286,242 @@
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1385,40 +1553,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1426,37 +1594,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1464,75 +1632,75 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="J3" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1540,37 +1708,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1578,37 +1746,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
